--- a/managerproducts/data/export/export.xlsx
+++ b/managerproducts/data/export/export.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA\2025\Lab\lab1\managerproducts\data\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73833BCC-66BE-4D10-B654-CEF9E034EAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D22465B-E03D-4E41-98D0-FC34AF2DB003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -431,17 +431,12 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" customWidth="1"/>
-    <col min="4" max="4" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
